--- a/server/upload/human-resource/templateImport/templateImportTimesheets.xlsx
+++ b/server/upload/human-resource/templateImport/templateImportTimesheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung Cuong\Desktop\qlcv\server\upload\human-resource\templateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A312A7B-89B3-467B-9C75-3CE033D5ACF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47A493-9EB9-4363-8FAC-06558F76B035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,41 +387,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -729,7 +729,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>BẢNG CHẤM CÔNG</a:t>
+            <a:t>MẪU IMPORT CHẤM CÔNG</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1008,7 +1008,7 @@
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:A14"/>
+      <selection pane="bottomRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,55 +1024,55 @@
       <c r="F5" s="4"/>
     </row>
     <row r="7" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
     </row>
     <row r="8" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="15"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="5">
         <v>1</v>
       </c>
@@ -1168,13 +1168,13 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -1219,9 +1219,9 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1266,13 +1266,13 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1313,9 +1313,9 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1354,9 +1354,9 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
@@ -1391,9 +1391,9 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1429,6 +1429,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:AI7"/>
     <mergeCell ref="A9:A10"/>
@@ -1437,12 +1443,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
